--- a/03_Analisis_de_Datos/Sprint_06/Unidad_02/Practica_Obligatoria/data/mojo_data.xlsx
+++ b/03_Analisis_de_Datos/Sprint_06/Unidad_02/Practica_Obligatoria/data/mojo_data.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>$23,066,203</t>
+          <t>$23,066,528</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>¡Vaya vacaciones!</t>
+          <t>One Hell of a Holiday!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>$7,294,380</t>
+          <t>$7,295,417</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>$1,866,006</t>
+          <t>$1,854,909</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>$1,352,650</t>
+          <t>$1,353,127</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>El favor</t>
+          <t>Just One Small Favor</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>$515,125</t>
+          <t>$508,099</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
